--- a/Cog Sci 242 F17 Lab 6 - Regression Analysis My Data.xlsx
+++ b/Cog Sci 242 F17 Lab 6 - Regression Analysis My Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa5\Google Drive\Oxy 2018 Fall\CogS 242\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D5B673-5B3A-44F7-8CD1-BB570C3D66C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1797E1AB-6CAE-4E83-8C9E-47236B23BF5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1343" windowWidth="25283" windowHeight="13523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1343" windowWidth="25283" windowHeight="13523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="15" r:id="rId1"/>
@@ -565,7 +565,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -600,17 +600,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -727,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,19 +778,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -824,7 +804,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,68 +823,65 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1083,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16</c:v>
@@ -1127,10 +1104,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>64</c:v>
@@ -1145,15 +1122,6 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -1166,76 +1134,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1061</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>983</c:v>
+                  <c:v>548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1279</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2372</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>874</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1155</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1669</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>655</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1763</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1841</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1919</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1419</c:v>
+                  <c:v>1035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1716</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1357</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1138</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1233</c:v>
+                  <c:v>1347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2870</c:v>
+                  <c:v>1355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4072</c:v>
+                  <c:v>1414</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2699</c:v>
+                  <c:v>1452</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2542</c:v>
+                  <c:v>1662</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2122</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1919</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1935</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5070</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1263,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16</c:v>
@@ -1325,10 +1284,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>64</c:v>
@@ -1343,15 +1302,6 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -1364,76 +1314,76 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1238.25</c:v>
+                  <c:v>712.81632653061217</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1238.25</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1570.4375</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1570.4375</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1570.4375</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1570.4375</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1570.4375</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1570.4375</c:v>
+                  <c:v>864.26530612244892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1570.4375</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1570.4375</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2899.1875</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2899.1875</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2899.1875</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2899.1875</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2899.1875</c:v>
+                  <c:v>1470.0612244897957</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2899.1875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2899.1875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2899.1875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,7 +1452,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16</c:v>
@@ -1523,10 +1473,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>64</c:v>
@@ -1541,15 +1491,6 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -1562,76 +1503,76 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1902.625</c:v>
+                  <c:v>1015.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1902.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1902.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1902.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2338,7 +2279,7 @@
     <col min="14" max="14" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2346,22 +2287,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="70" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2321,7 @@
       <c r="G3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="71"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="11" t="s">
         <v>57</v>
       </c>
@@ -2401,21 +2342,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="G4" t="b">
         <f t="shared" ref="G4:G10" si="0">OR(E4&lt;$J$11-1.5*$O$11,E4&gt;$L$11+1.5*$O$11)</f>
@@ -2428,22 +2369,28 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>439</v>
+        <v>548</v>
       </c>
       <c r="G5" t="b">
         <f t="shared" si="0"/>
@@ -2456,13 +2403,19 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -2471,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="G6" t="b">
         <f t="shared" si="0"/>
@@ -2484,13 +2437,19 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -2499,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="G7" t="b">
         <f t="shared" si="0"/>
@@ -2512,22 +2471,28 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>562</v>
+        <v>671</v>
       </c>
       <c r="G8" t="b">
         <f t="shared" si="0"/>
@@ -2540,22 +2505,28 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>566</v>
+        <v>678</v>
       </c>
       <c r="G9" t="b">
         <f t="shared" si="0"/>
@@ -2568,13 +2539,19 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -2583,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>415</v>
+        <v>696</v>
       </c>
       <c r="G10" t="b">
         <f t="shared" si="0"/>
@@ -2596,69 +2573,77 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>360</v>
-      </c>
-      <c r="G11" s="36" t="b">
+        <v>855</v>
+      </c>
+      <c r="G11" s="33" t="b">
         <f>OR(E11&lt;$J$11-1.5*$O$11,E11&gt;$L$11+1.5*$O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="49">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="46">
         <f>MIN(E4:E11)</f>
-        <v>360</v>
-      </c>
-      <c r="J11" s="49">
+        <v>516</v>
+      </c>
+      <c r="J11" s="46">
         <f>QUARTILE(E4:E11,1)</f>
-        <v>433</v>
-      </c>
-      <c r="K11" s="49">
+        <v>580.25</v>
+      </c>
+      <c r="K11" s="46">
         <f>MEDIAN(E4:E11)</f>
-        <v>502</v>
-      </c>
-      <c r="L11" s="49">
+        <v>655.5</v>
+      </c>
+      <c r="L11" s="46">
         <f>QUARTILE(E4:E11,3)</f>
-        <v>564.5</v>
-      </c>
-      <c r="M11" s="49">
+        <v>682.5</v>
+      </c>
+      <c r="M11" s="46">
         <f>MAX(E4:E11)</f>
-        <v>660</v>
-      </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49">
+        <v>855</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46">
         <f>L11-J11</f>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>102.25</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>455</v>
+        <v>724</v>
       </c>
       <c r="G12" t="b">
         <f t="shared" ref="G12:G18" si="1">OR(E12&lt;$J$19-1.5*$O$19,E12&gt;$L$19+1.5*$O$19)</f>
@@ -2671,22 +2656,28 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>16</v>
       </c>
       <c r="E13" s="3">
-        <v>566</v>
+        <v>837</v>
       </c>
       <c r="G13" t="b">
         <f t="shared" si="1"/>
@@ -2699,22 +2690,28 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3">
-        <v>564</v>
+        <v>859</v>
       </c>
       <c r="G14" t="b">
         <f t="shared" si="1"/>
@@ -2727,22 +2724,28 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3">
-        <v>502</v>
+        <v>965</v>
       </c>
       <c r="G15" t="b">
         <f t="shared" si="1"/>
@@ -2755,22 +2758,28 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3">
-        <v>511</v>
+        <v>1035</v>
       </c>
       <c r="G16" t="b">
         <f t="shared" si="1"/>
@@ -2783,22 +2792,28 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3">
-        <v>549</v>
+        <v>1154</v>
       </c>
       <c r="G17" t="b">
         <f t="shared" si="1"/>
@@ -2811,22 +2826,28 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3">
-        <v>454</v>
+        <v>1288</v>
       </c>
       <c r="G18" t="b">
         <f t="shared" si="1"/>
@@ -2839,69 +2860,77 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
-        <v>502</v>
-      </c>
-      <c r="G19" s="36" t="b">
+        <v>1338</v>
+      </c>
+      <c r="G19" s="33" t="b">
         <f>OR(E19&lt;$J$19-1.5*$O$19,E19&gt;$L$19+1.5*$O$19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="49">
+      <c r="H19" s="33"/>
+      <c r="I19" s="46">
         <f>MIN(E12:E19)</f>
-        <v>454</v>
-      </c>
-      <c r="J19" s="49">
+        <v>724</v>
+      </c>
+      <c r="J19" s="46">
         <f>QUARTILE(E12:E19,1)</f>
-        <v>490.25</v>
-      </c>
-      <c r="K19" s="49">
+        <v>853.5</v>
+      </c>
+      <c r="K19" s="46">
         <f>MEDIAN(E12:E19)</f>
-        <v>506.5</v>
-      </c>
-      <c r="L19" s="49">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="46">
         <f>QUARTILE(E12:E19,3)</f>
-        <v>552.75</v>
-      </c>
-      <c r="M19" s="49">
+        <v>1187.5</v>
+      </c>
+      <c r="M19" s="46">
         <f>MAX(E12:E19)</f>
-        <v>566</v>
-      </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49">
+        <v>1338</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46">
         <f>L19-J19</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3">
-        <v>440</v>
+        <v>859</v>
       </c>
       <c r="G20" t="b">
         <f t="shared" ref="G20:G26" si="2">OR(E20&lt;$J$27-1.5*$O$27,E20&gt;$L$27+1.5*$O$27)</f>
@@ -2914,22 +2943,28 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
         <v>64</v>
       </c>
       <c r="E21" s="3">
-        <v>486</v>
+        <v>1347</v>
       </c>
       <c r="G21" t="b">
         <f t="shared" si="2"/>
@@ -2942,22 +2977,28 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3">
-        <v>408</v>
+        <v>1355</v>
       </c>
       <c r="G22" t="b">
         <f t="shared" si="2"/>
@@ -2970,22 +3011,28 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3">
-        <v>441</v>
+        <v>1414</v>
       </c>
       <c r="G23" t="b">
         <f t="shared" si="2"/>
@@ -2998,22 +3045,28 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3">
-        <v>626</v>
+        <v>1452</v>
       </c>
       <c r="G24" t="b">
         <f t="shared" si="2"/>
@@ -3026,22 +3079,28 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3">
-        <v>392</v>
+        <v>1662</v>
       </c>
       <c r="G25" t="b">
         <f t="shared" si="2"/>
@@ -3054,13 +3113,19 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -3069,11 +3134,11 @@
         <v>64</v>
       </c>
       <c r="E26" s="3">
-        <v>728</v>
+        <v>2039</v>
       </c>
       <c r="G26" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -3082,13 +3147,19 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -3097,54 +3168,56 @@
         <v>64</v>
       </c>
       <c r="E27" s="3">
-        <v>485</v>
-      </c>
-      <c r="G27" s="36" t="b">
+        <v>2727</v>
+      </c>
+      <c r="G27" s="33" t="b">
         <f>OR(E27&lt;$J$27-1.5*$O$27,E27&gt;$L$27+1.5*$O$27)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="49">
+        <v>1</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="46">
         <f>MIN(E20:E27)</f>
-        <v>392</v>
-      </c>
-      <c r="J27" s="49">
+        <v>859</v>
+      </c>
+      <c r="J27" s="46">
         <f>QUARTILE(E20:E27,1)</f>
-        <v>432</v>
-      </c>
-      <c r="K27" s="49">
+        <v>1353</v>
+      </c>
+      <c r="K27" s="46">
         <f>MEDIAN(E20:E27)</f>
-        <v>463</v>
-      </c>
-      <c r="L27" s="49">
+        <v>1433</v>
+      </c>
+      <c r="L27" s="46">
         <f>QUARTILE(E20:E27,3)</f>
-        <v>521</v>
-      </c>
-      <c r="M27" s="49">
+        <v>1756.25</v>
+      </c>
+      <c r="M27" s="46">
         <f>MAX(E20:E27)</f>
-        <v>728</v>
-      </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49">
+        <v>2727</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46">
         <f>L27-J27</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>403.25</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="G28" t="b">
         <f t="shared" ref="G28:G34" si="3">OR(E28&lt;$J$35-1.5*$O$35,E28&gt;$L$35+1.5*$O$35)</f>
@@ -3157,22 +3230,28 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" s="3">
-        <v>440</v>
+        <v>563</v>
       </c>
       <c r="G29" t="b">
         <f t="shared" si="3"/>
@@ -3185,22 +3264,28 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E30" s="3">
-        <v>423</v>
+        <v>626</v>
       </c>
       <c r="G30" t="b">
         <f t="shared" si="3"/>
@@ -3213,22 +3298,28 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3">
-        <v>424</v>
+        <v>658</v>
       </c>
       <c r="G31" t="b">
         <f t="shared" si="3"/>
@@ -3241,22 +3332,28 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>492</v>
+        <v>672</v>
       </c>
       <c r="G32" t="b">
         <f t="shared" si="3"/>
@@ -3269,22 +3366,28 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>571</v>
+        <v>737</v>
       </c>
       <c r="G33" t="b">
         <f t="shared" si="3"/>
@@ -3297,22 +3400,28 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>486</v>
+        <v>779</v>
       </c>
       <c r="G34" t="b">
         <f t="shared" si="3"/>
@@ -3325,69 +3434,77 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>532</v>
-      </c>
-      <c r="G35" s="36" t="b">
+        <v>787</v>
+      </c>
+      <c r="G35" s="33" t="b">
         <f>OR(E35&lt;$J$35-1.5*$O$35,E35&gt;$L$35+1.5*$O$35)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="49">
+      <c r="H35" s="33"/>
+      <c r="I35" s="46">
         <f>MIN(E28:E35)</f>
-        <v>391</v>
-      </c>
-      <c r="J35" s="49">
+        <v>502</v>
+      </c>
+      <c r="J35" s="46">
         <f>QUARTILE(E28:E35,1)</f>
-        <v>423.75</v>
-      </c>
-      <c r="K35" s="49">
+        <v>610.25</v>
+      </c>
+      <c r="K35" s="46">
         <f>MEDIAN(E28:E35)</f>
-        <v>463</v>
-      </c>
-      <c r="L35" s="49">
+        <v>665</v>
+      </c>
+      <c r="L35" s="46">
         <f>QUARTILE(E28:E35,3)</f>
-        <v>502</v>
-      </c>
-      <c r="M35" s="49">
+        <v>747.5</v>
+      </c>
+      <c r="M35" s="46">
         <f>MAX(E28:E35)</f>
-        <v>571</v>
-      </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49">
+        <v>787</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46">
         <f>L35-J35</f>
-        <v>78.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>137.25</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E36" s="3">
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="G36" t="b">
         <f t="shared" ref="G36:G42" si="4">OR(E36&lt;$J$43-1.5*$O$43,E36&gt;$L$43+1.5*$O$43)</f>
@@ -3400,13 +3517,19 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
@@ -3415,7 +3538,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="3">
-        <v>468</v>
+        <v>754</v>
       </c>
       <c r="G37" t="b">
         <f t="shared" si="4"/>
@@ -3428,22 +3551,28 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3">
-        <v>391</v>
+        <v>767</v>
       </c>
       <c r="G38" t="b">
         <f t="shared" si="4"/>
@@ -3456,22 +3585,28 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3">
         <v>16</v>
       </c>
       <c r="E39" s="3">
-        <v>474</v>
+        <v>800</v>
       </c>
       <c r="G39" t="b">
         <f t="shared" si="4"/>
@@ -3484,22 +3619,28 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P39" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3">
-        <v>362</v>
+        <v>846</v>
       </c>
       <c r="G40" t="b">
         <f t="shared" si="4"/>
@@ -3512,22 +3653,28 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3">
         <v>16</v>
       </c>
       <c r="E41" s="3">
-        <v>501</v>
+        <v>848</v>
       </c>
       <c r="G41" t="b">
         <f t="shared" si="4"/>
@@ -3540,26 +3687,32 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3">
         <v>16</v>
       </c>
       <c r="E42" s="3">
-        <v>621</v>
+        <v>909</v>
       </c>
       <c r="G42" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -3568,60 +3721,68 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3">
-        <v>439</v>
-      </c>
-      <c r="G43" s="36" t="b">
+        <v>973</v>
+      </c>
+      <c r="G43" s="33" t="b">
         <f>OR(E43&lt;$J$43-1.5*$O$43,E43&gt;$L$43+1.5*$O$43)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="49">
+      <c r="H43" s="33"/>
+      <c r="I43" s="46">
         <f>MIN(E36:E43)</f>
-        <v>362</v>
-      </c>
-      <c r="J43" s="49">
+        <v>644</v>
+      </c>
+      <c r="J43" s="46">
         <f>QUARTILE(E36:E43,1)</f>
-        <v>414.25</v>
-      </c>
-      <c r="K43" s="49">
+        <v>763.75</v>
+      </c>
+      <c r="K43" s="46">
         <f>MEDIAN(E36:E43)</f>
-        <v>453.5</v>
-      </c>
-      <c r="L43" s="49">
+        <v>823</v>
+      </c>
+      <c r="L43" s="46">
         <f>QUARTILE(E36:E43,3)</f>
-        <v>480.75</v>
-      </c>
-      <c r="M43" s="49">
+        <v>863.25</v>
+      </c>
+      <c r="M43" s="46">
         <f>MAX(E36:E43)</f>
-        <v>621</v>
-      </c>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49">
+        <v>973</v>
+      </c>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46">
         <f>L43-J43</f>
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>99.5</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
@@ -3630,7 +3791,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="3">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="G44" t="b">
         <f t="shared" ref="G44:G50" si="5">OR(E44&lt;$J$51-1.5*$O$51,E44&gt;$L$51+1.5*$O$51)</f>
@@ -3643,22 +3804,28 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3">
-        <v>471</v>
+        <v>850</v>
       </c>
       <c r="G45" t="b">
         <f t="shared" si="5"/>
@@ -3671,13 +3838,19 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -3686,7 +3859,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="3">
-        <v>499</v>
+        <v>867</v>
       </c>
       <c r="G46" t="b">
         <f t="shared" si="5"/>
@@ -3699,26 +3872,32 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E47" s="3">
-        <v>421</v>
+        <v>972</v>
       </c>
       <c r="G47" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -3727,22 +3906,28 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3">
         <v>64</v>
       </c>
       <c r="E48" s="3">
-        <v>502</v>
+        <v>988</v>
       </c>
       <c r="G48" t="b">
         <f t="shared" si="5"/>
@@ -3755,22 +3940,28 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E49" s="3">
-        <v>446</v>
+        <v>1266</v>
       </c>
       <c r="G49" t="b">
         <f t="shared" si="5"/>
@@ -3783,22 +3974,28 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3">
-        <v>470</v>
+        <v>1395</v>
       </c>
       <c r="G50" t="b">
         <f t="shared" si="5"/>
@@ -3811,789 +4008,929 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E51" s="3">
-        <v>469</v>
-      </c>
-      <c r="G51" s="36" t="b">
+        <v>1819</v>
+      </c>
+      <c r="G51" s="33" t="b">
         <f>OR(E51&lt;$J$51-1.5*$O$51,E51&gt;$L$51+1.5*$O$51)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="49">
+      <c r="H51" s="33"/>
+      <c r="I51" s="46">
         <f>MIN(E44:E51)</f>
-        <v>421</v>
-      </c>
-      <c r="J51" s="49">
+        <v>597</v>
+      </c>
+      <c r="J51" s="46">
         <f>QUARTILE(E44:E51,1)</f>
-        <v>463.25</v>
-      </c>
-      <c r="K51" s="49">
+        <v>862.75</v>
+      </c>
+      <c r="K51" s="46">
         <f>MEDIAN(E44:E51)</f>
-        <v>470.5</v>
-      </c>
-      <c r="L51" s="49">
+        <v>980</v>
+      </c>
+      <c r="L51" s="46">
         <f>QUARTILE(E44:E51,3)</f>
-        <v>489.25</v>
-      </c>
-      <c r="M51" s="49">
+        <v>1298.25</v>
+      </c>
+      <c r="M51" s="46">
         <f>MAX(E44:E51)</f>
-        <v>502</v>
-      </c>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49">
+        <v>1819</v>
+      </c>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46">
         <f>L51-J51</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <v>435.5</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>2727</v>
+        <v>415</v>
       </c>
       <c r="G52" t="b">
         <f t="shared" ref="G52:G58" si="6">OR(E52&lt;$J$59-1.5*$O$59,E52&gt;$L$59+1.5*$O$59)</f>
-        <v>1</v>
-      </c>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E53" s="3">
-        <v>1338</v>
+        <v>439</v>
       </c>
       <c r="G53" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E54" s="3">
-        <v>644</v>
+        <v>440</v>
       </c>
       <c r="G54" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E55" s="3">
-        <v>1154</v>
+        <v>442</v>
       </c>
       <c r="G55" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E56" s="3">
-        <v>1452</v>
+        <v>486</v>
       </c>
       <c r="G56" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3">
-        <v>1819</v>
+        <v>549</v>
       </c>
       <c r="G57" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>1288</v>
+        <v>626</v>
       </c>
       <c r="G58" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="3">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>660</v>
+      </c>
+      <c r="G59" s="33" t="b">
+        <f>OR(E59&lt;$J$59-1.5*$O$59,E59&gt;$L$59+1.5*$O$59)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="33"/>
+      <c r="I59" s="68">
+        <f>MIN(E52:E59)</f>
+        <v>415</v>
+      </c>
+      <c r="J59" s="68">
+        <f>QUARTILE(E52:E59,1)</f>
+        <v>439.75</v>
+      </c>
+      <c r="K59" s="68">
+        <f>MEDIAN(E52:E59)</f>
+        <v>464</v>
+      </c>
+      <c r="L59" s="68">
+        <f>QUARTILE(E52:E59,3)</f>
+        <v>568.25</v>
+      </c>
+      <c r="M59" s="68">
+        <f>MAX(E52:E59)</f>
+        <v>660</v>
+      </c>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68">
+        <f>L59-J59</f>
+        <v>128.5</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>25</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
         <v>16</v>
       </c>
-      <c r="E59" s="3">
-        <v>973</v>
-      </c>
-      <c r="G59" s="36" t="b">
-        <f>OR(E59&lt;$J$59-1.5*$O$59,E59&gt;$L$59+1.5*$O$59)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="72">
-        <f>MIN(E52:E59)</f>
-        <v>644</v>
-      </c>
-      <c r="J59" s="72">
-        <f>QUARTILE(E52:E59,1)</f>
-        <v>1108.75</v>
-      </c>
-      <c r="K59" s="72">
-        <f>MEDIAN(E52:E59)</f>
-        <v>1313</v>
-      </c>
-      <c r="L59" s="72">
-        <f>QUARTILE(E52:E59,3)</f>
-        <v>1543.75</v>
-      </c>
-      <c r="M59" s="72">
-        <f>MAX(E52:E59)</f>
-        <v>2727</v>
-      </c>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72">
-        <f>L59-J59</f>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>57</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3">
-        <v>4</v>
-      </c>
       <c r="E60" s="3">
-        <v>563</v>
+        <v>391</v>
       </c>
       <c r="G60" t="b">
         <f t="shared" ref="G60:G66" si="7">OR(E60&lt;$J$67-1.5*$O$67,E60&gt;$L$67+1.5*$O$67)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E61" s="3">
-        <v>859</v>
+        <v>440</v>
       </c>
       <c r="G61" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E62" s="3">
-        <v>597</v>
+        <v>441</v>
       </c>
       <c r="G62" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E63" s="3">
-        <v>658</v>
+        <v>471</v>
       </c>
       <c r="G63" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E64" s="3">
-        <v>1347</v>
+        <v>474</v>
       </c>
       <c r="G64" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E65" s="3">
-        <v>671</v>
+        <v>501</v>
       </c>
       <c r="G65" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="P65" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E66" s="3">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="G66" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E67" s="3">
-        <v>1414</v>
-      </c>
-      <c r="G67" s="36" t="b">
+        <v>621</v>
+      </c>
+      <c r="G67" s="33" t="b">
         <f>OR(E67&lt;$J$67-1.5*$O$67,E67&gt;$L$67+1.5*$O$67)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="72">
+      <c r="H67" s="33"/>
+      <c r="I67" s="68">
         <f>MIN(E60:E67)</f>
-        <v>548</v>
-      </c>
-      <c r="J67" s="72">
+        <v>391</v>
+      </c>
+      <c r="J67" s="68">
         <f>QUARTILE(E60:E67,1)</f>
-        <v>588.5</v>
-      </c>
-      <c r="K67" s="72">
+        <v>440.75</v>
+      </c>
+      <c r="K67" s="68">
         <f>MEDIAN(E60:E67)</f>
-        <v>664.5</v>
-      </c>
-      <c r="L67" s="72">
+        <v>472.5</v>
+      </c>
+      <c r="L67" s="68">
         <f>QUARTILE(E60:E67,3)</f>
-        <v>981</v>
-      </c>
-      <c r="M67" s="72">
+        <v>516.25</v>
+      </c>
+      <c r="M67" s="68">
         <f>MAX(E60:E67)</f>
-        <v>1414</v>
-      </c>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72">
+        <v>621</v>
+      </c>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68">
         <f>L67-J67</f>
-        <v>392.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <v>75.5</v>
+      </c>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="3">
         <v>64</v>
       </c>
       <c r="E68" s="3">
-        <v>867</v>
+        <v>391</v>
       </c>
       <c r="G68" t="b">
         <f t="shared" ref="G68:G74" si="8">OR(E68&lt;$J$75-1.5*$O$75,E68&gt;$L$75+1.5*$O$75)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E69" s="3">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="G69" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="3">
         <v>64</v>
       </c>
       <c r="E70" s="3">
-        <v>1395</v>
+        <v>455</v>
       </c>
       <c r="G70" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="65"/>
+      <c r="P70" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E71" s="3">
-        <v>846</v>
+        <v>485</v>
       </c>
       <c r="G71" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E72" s="3">
-        <v>859</v>
+        <v>502</v>
       </c>
       <c r="G72" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I72" s="69"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="69"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E73" s="3">
-        <v>837</v>
+        <v>502</v>
       </c>
       <c r="G73" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="69"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E74" s="3">
-        <v>724</v>
+        <v>511</v>
       </c>
       <c r="G74" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E75" s="3">
-        <v>672</v>
-      </c>
-      <c r="G75" s="36" t="b">
+        <v>728</v>
+      </c>
+      <c r="G75" s="33" t="b">
         <f>OR(E75&lt;$J$75-1.5*$O$75,E75&gt;$L$75+1.5*$O$75)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="36"/>
-      <c r="I75" s="72">
+        <v>1</v>
+      </c>
+      <c r="H75" s="33"/>
+      <c r="I75" s="68">
         <f>MIN(E68:E75)</f>
-        <v>516</v>
-      </c>
-      <c r="J75" s="72">
+        <v>391</v>
+      </c>
+      <c r="J75" s="68">
         <f>QUARTILE(E68:E75,1)</f>
-        <v>711</v>
-      </c>
-      <c r="K75" s="72">
+        <v>447.25</v>
+      </c>
+      <c r="K75" s="68">
         <f>MEDIAN(E68:E75)</f>
-        <v>841.5</v>
-      </c>
-      <c r="L75" s="72">
+        <v>493.5</v>
+      </c>
+      <c r="L75" s="68">
         <f>QUARTILE(E68:E75,3)</f>
-        <v>861</v>
-      </c>
-      <c r="M75" s="72">
+        <v>504.25</v>
+      </c>
+      <c r="M75" s="68">
         <f>MAX(E68:E75)</f>
-        <v>1395</v>
-      </c>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72">
+        <v>728</v>
+      </c>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68">
         <f>L75-J75</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>14</v>
@@ -4602,54 +4939,66 @@
         <v>4</v>
       </c>
       <c r="E76" s="3">
-        <v>787</v>
+        <v>408</v>
       </c>
       <c r="G76" t="b">
         <f t="shared" ref="G76:G82" si="9">OR(E76&lt;$J$83-1.5*$O$83,E76&gt;$L$83+1.5*$O$83)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E77" s="3">
-        <v>909</v>
+        <v>421</v>
       </c>
       <c r="G77" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="65"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>14</v>
@@ -4658,82 +5007,100 @@
         <v>4</v>
       </c>
       <c r="E78" s="3">
-        <v>737</v>
+        <v>422</v>
       </c>
       <c r="G78" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="65"/>
+      <c r="O78" s="65"/>
+      <c r="P78" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E79" s="3">
-        <v>1662</v>
+        <v>439</v>
       </c>
       <c r="G79" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I79" s="69"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="69"/>
-      <c r="O79" s="69"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
+      <c r="O79" s="65"/>
+      <c r="P79" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E80" s="3">
-        <v>767</v>
+        <v>446</v>
       </c>
       <c r="G80" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="69"/>
-      <c r="O80" s="69"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>14</v>
@@ -4742,241 +5109,285 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>779</v>
+        <v>470</v>
       </c>
       <c r="G81" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="69"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="69"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
       </c>
       <c r="E82" s="3">
-        <v>855</v>
+        <v>502</v>
       </c>
       <c r="G82" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="69"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="69"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>972</v>
-      </c>
-      <c r="G83" s="36" t="b">
+        <v>564</v>
+      </c>
+      <c r="G83" s="33" t="b">
         <f>OR(E83&lt;$J$83-1.5*$O$83,E83&gt;$L$83+1.5*$O$83)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="72">
+        <v>1</v>
+      </c>
+      <c r="H83" s="33"/>
+      <c r="I83" s="68">
         <f>MIN(E76:E83)</f>
-        <v>737</v>
-      </c>
-      <c r="J83" s="72">
+        <v>408</v>
+      </c>
+      <c r="J83" s="68">
         <f>QUARTILE(E76:E83,1)</f>
-        <v>776</v>
-      </c>
-      <c r="K83" s="72">
+        <v>421.75</v>
+      </c>
+      <c r="K83" s="68">
         <f>MEDIAN(E76:E83)</f>
-        <v>821</v>
-      </c>
-      <c r="L83" s="72">
+        <v>442.5</v>
+      </c>
+      <c r="L83" s="68">
         <f>QUARTILE(E76:E83,3)</f>
-        <v>924.75</v>
-      </c>
-      <c r="M83" s="72">
+        <v>478</v>
+      </c>
+      <c r="M83" s="68">
         <f>MAX(E76:E83)</f>
-        <v>1662</v>
-      </c>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72">
+        <v>564</v>
+      </c>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68">
         <f>L83-J83</f>
-        <v>148.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+        <v>56.25</v>
+      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E84" s="3">
-        <v>988</v>
+        <v>360</v>
       </c>
       <c r="G84" t="b">
         <f t="shared" ref="G84:G90" si="10">OR(E84&lt;$J$91-1.5*$O$91,E84&gt;$L$91+1.5*$O$91)</f>
         <v>0</v>
       </c>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E85" s="3">
-        <v>502</v>
+        <v>392</v>
       </c>
       <c r="G85" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="69"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="69"/>
-      <c r="O85" s="69"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E86" s="3">
-        <v>696</v>
+        <v>423</v>
       </c>
       <c r="G86" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I86" s="69"/>
-      <c r="J86" s="69"/>
-      <c r="K86" s="69"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
-      <c r="O86" s="69"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E87" s="3">
-        <v>2039</v>
+        <v>468</v>
       </c>
       <c r="G87" t="b">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="65"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E88" s="3">
-        <v>1355</v>
+        <v>469</v>
       </c>
       <c r="G88" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="69"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>14</v>
@@ -4985,157 +5396,183 @@
         <v>16</v>
       </c>
       <c r="E89" s="3">
-        <v>800</v>
+        <v>492</v>
       </c>
       <c r="G89" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E90" s="3">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="G90" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="69"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="3">
         <v>16</v>
       </c>
       <c r="E91" s="3">
-        <v>965</v>
-      </c>
-      <c r="G91" s="36" t="b">
+        <v>566</v>
+      </c>
+      <c r="G91" s="33" t="b">
         <f>OR(E91&lt;$J$91-1.5*$O$91,E91&gt;$L$91+1.5*$O$91)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="36"/>
-      <c r="I91" s="72">
+      <c r="H91" s="33"/>
+      <c r="I91" s="68">
         <f>MIN(E84:E91)</f>
+        <v>360</v>
+      </c>
+      <c r="J91" s="68">
+        <f>QUARTILE(E84:E91,1)</f>
+        <v>415.25</v>
+      </c>
+      <c r="K91" s="68">
+        <f>MEDIAN(E84:E91)</f>
+        <v>468.5</v>
+      </c>
+      <c r="L91" s="68">
+        <f>QUARTILE(E84:E91,3)</f>
         <v>502</v>
       </c>
-      <c r="J91" s="72">
-        <f>QUARTILE(E84:E91,1)</f>
-        <v>691.5</v>
-      </c>
-      <c r="K91" s="72">
-        <f>MEDIAN(E84:E91)</f>
-        <v>882.5</v>
-      </c>
-      <c r="L91" s="72">
-        <f>QUARTILE(E84:E91,3)</f>
-        <v>1079.75</v>
-      </c>
-      <c r="M91" s="72">
+      <c r="M91" s="68">
         <f>MAX(E84:E91)</f>
-        <v>2039</v>
-      </c>
-      <c r="N91" s="72"/>
-      <c r="O91" s="72">
+        <v>566</v>
+      </c>
+      <c r="N91" s="68"/>
+      <c r="O91" s="68">
         <f>L91-J91</f>
-        <v>388.25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+        <v>86.75</v>
+      </c>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E92" s="3">
-        <v>640</v>
+        <v>362</v>
       </c>
       <c r="G92" t="b">
         <f t="shared" ref="G92:G98" si="11">OR(E92&lt;$J$99-1.5*$O$99,E92&gt;$L$99+1.5*$O$99)</f>
         <v>0</v>
       </c>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="69"/>
-      <c r="O92" s="69"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E93" s="3">
-        <v>754</v>
+        <v>454</v>
       </c>
       <c r="G93" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
@@ -5144,82 +5581,100 @@
         <v>64</v>
       </c>
       <c r="E94" s="3">
-        <v>850</v>
+        <v>486</v>
       </c>
       <c r="G94" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I94" s="69"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="69"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="69"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="65"/>
+      <c r="P94" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E95" s="3">
-        <v>591</v>
+        <v>486</v>
       </c>
       <c r="G95" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I95" s="69"/>
-      <c r="J95" s="69"/>
-      <c r="K95" s="69"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="69"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E96" s="3">
-        <v>626</v>
+        <v>499</v>
       </c>
       <c r="G96" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
-      <c r="O96" s="69"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -5228,89 +5683,109 @@
         <v>64</v>
       </c>
       <c r="E97" s="3">
-        <v>1266</v>
+        <v>564</v>
       </c>
       <c r="G97" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I97" s="69"/>
-      <c r="J97" s="69"/>
-      <c r="K97" s="69"/>
-      <c r="L97" s="69"/>
-      <c r="M97" s="69"/>
-      <c r="N97" s="69"/>
-      <c r="O97" s="69"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="65"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E98" s="3">
-        <v>848</v>
+        <v>566</v>
       </c>
       <c r="G98" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P98" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="3">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E99" s="3">
-        <v>1035</v>
-      </c>
-      <c r="G99" s="36" t="b">
+        <v>571</v>
+      </c>
+      <c r="G99" s="33" t="b">
         <f>OR(E99&lt;$J$99-1.5*$O$99,E99&gt;$L$99+1.5*$O$99)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="36"/>
-      <c r="I99" s="49">
+      <c r="H99" s="33"/>
+      <c r="I99" s="46">
         <f>MIN(E92:E99)</f>
-        <v>591</v>
-      </c>
-      <c r="J99" s="49">
+        <v>362</v>
+      </c>
+      <c r="J99" s="46">
         <f>QUARTILE(E92:E99,1)</f>
-        <v>636.5</v>
-      </c>
-      <c r="K99" s="49">
+        <v>478</v>
+      </c>
+      <c r="K99" s="46">
         <f>MEDIAN(E92:E99)</f>
-        <v>801</v>
-      </c>
-      <c r="L99" s="49">
+        <v>492.5</v>
+      </c>
+      <c r="L99" s="46">
         <f>QUARTILE(E92:E99,3)</f>
-        <v>896.25</v>
-      </c>
-      <c r="M99" s="49">
+        <v>564.5</v>
+      </c>
+      <c r="M99" s="46">
         <f>MAX(E92:E99)</f>
-        <v>1266</v>
-      </c>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49">
+        <v>571</v>
+      </c>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46">
         <f>L99-J99</f>
-        <v>259.75</v>
-      </c>
+        <v>86.5</v>
+      </c>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A4:E99">
+    <sortCondition ref="B4:B99"/>
+    <sortCondition ref="C4:C99"/>
+    <sortCondition ref="D4:D99"/>
+    <sortCondition ref="E4:E99"/>
+  </sortState>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -5322,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5351,7 +5826,7 @@
         <v>63</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5360,48 +5835,48 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="34"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="41">
         <f>$D$9</f>
-        <v>1902.625</v>
+        <v>1015.7142857142857</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="48" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="64" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="61" t="s">
         <v>51</v>
       </c>
       <c r="P4" s="8"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="64" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="65"/>
+      <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -5411,178 +5886,206 @@
       <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <f>$D$7</f>
-        <v>27.682291666666668</v>
+        <v>12.620748299319727</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <f>$F$7</f>
-        <v>1127.5208333333333</v>
+        <v>662.33333333333326</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="63">
         <f>(F10-I10)/F10</f>
-        <v>0.51969805595005947</v>
-      </c>
-      <c r="K5" s="56"/>
+        <v>0.65608058570485883</v>
+      </c>
+      <c r="K5" s="53"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>50</v>
       </c>
       <c r="P5" s="8"/>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="65"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="26"/>
-      <c r="I6" s="47"/>
-      <c r="K6" s="56"/>
+      <c r="F6" s="24"/>
+      <c r="I6" s="44"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="49">
         <v>0.52</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="49">
         <v>0.5</v>
       </c>
       <c r="P6" s="8"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="65"/>
+      <c r="Q6" s="49">
+        <v>0.66</v>
+      </c>
+      <c r="R6" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="62"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="60">
         <f>(SUM(S14:S68)-(SUM(B14:B68)*SUM(C14:C68)/MAX(A14:A68)))/(SUM(R14:R68)-((SUM(B14:B68)^2)/MAX(A14:A68)))</f>
-        <v>27.682291666666668</v>
-      </c>
-      <c r="E7" s="28" t="s">
+        <v>12.620748299319727</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="60">
         <f xml:space="preserve"> AVERAGE(C14:C68)-D7*AVERAGE(B14:B68)</f>
-        <v>1127.5208333333333</v>
+        <v>662.33333333333326</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="63">
         <f>((F10/(A10-1)) - I10/(A10-2))/(F10/(A10-1))</f>
-        <v>0.49786614940233492</v>
-      </c>
-      <c r="K7" s="56"/>
+        <v>0.63797956389985122</v>
+      </c>
+      <c r="K7" s="53"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="68"/>
+      <c r="N7" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="O7" s="49">
+        <v>0.35</v>
+      </c>
       <c r="P7" s="8"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="65"/>
+      <c r="Q7" s="49">
+        <v>0.41</v>
+      </c>
+      <c r="R7" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="S7" s="62"/>
     </row>
     <row r="8" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C8" s="28"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="35"/>
-      <c r="H8" s="37" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="32"/>
+      <c r="H8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="K8" s="56"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="68"/>
+      <c r="N8" s="49">
+        <v>0</v>
+      </c>
+      <c r="O8" s="49">
+        <v>-0.05</v>
+      </c>
       <c r="P8" s="8"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="65"/>
+      <c r="Q8" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="S8" s="62"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="59">
         <f>AVERAGE(C14:C68)</f>
-        <v>1902.625</v>
-      </c>
-      <c r="K9" s="56"/>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="K9" s="53"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="68"/>
+      <c r="N9" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="O9" s="49">
+        <v>0.04</v>
+      </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="65"/>
+      <c r="Q9" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="R9" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="S9" s="62"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="67">
+      <c r="A10" s="64">
         <f>MAX(A14:A68)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <f>SUM(F14:F68)</f>
-        <v>23781185.625</v>
+        <v>3426112.2857142859</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="43">
         <f xml:space="preserve"> SUM(I14:I68)</f>
-        <v>11422149.6875</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
+        <v>1178306.5306122447</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -5592,7 +6095,7 @@
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -5655,35 +6158,35 @@
         <f>IF(COUNTBLANK(C14)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
-        <v>1061</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="C14" s="3">
+        <v>516</v>
+      </c>
+      <c r="D14" s="36">
         <f>$D$3</f>
-        <v>1902.625</v>
-      </c>
-      <c r="E14" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E14" s="37">
         <f>C14-D14</f>
-        <v>-841.625</v>
-      </c>
-      <c r="F14" s="40">
+        <v>-499.71428571428567</v>
+      </c>
+      <c r="F14" s="37">
         <f>E14^2</f>
-        <v>708332.640625</v>
-      </c>
-      <c r="G14" s="41">
+        <v>249714.36734693873</v>
+      </c>
+      <c r="G14" s="38">
         <f>$F$5 + $D$5*B14</f>
-        <v>1238.25</v>
-      </c>
-      <c r="H14" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H14" s="39">
         <f>C14-G14</f>
-        <v>-177.25</v>
-      </c>
-      <c r="I14" s="42">
+        <v>-196.81632653061217</v>
+      </c>
+      <c r="I14" s="39">
         <f>H14^2</f>
-        <v>31417.5625</v>
+        <v>38736.666389004553</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>6</v>
@@ -5697,35 +6200,35 @@
         <f>IF(COUNTBLANK(C15)=0,A14+1,A14)</f>
         <v>2</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="10">
-        <v>983</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="C15" s="3">
+        <v>548</v>
+      </c>
+      <c r="D15" s="36">
         <f t="shared" ref="D15:D37" si="0">IF(COUNTBLANK(B15)=0,$D$3," ")</f>
-        <v>1902.625</v>
-      </c>
-      <c r="E15" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E15" s="37">
         <f t="shared" ref="E15:E37" si="1">IF(COUNTBLANK(B15)=0,C15-D15," ")</f>
-        <v>-919.625</v>
-      </c>
-      <c r="F15" s="40">
+        <v>-467.71428571428567</v>
+      </c>
+      <c r="F15" s="37">
         <f t="shared" ref="F15:F37" si="2">IF(COUNTBLANK(B15)=0,E15*E15," ")</f>
-        <v>845710.140625</v>
-      </c>
-      <c r="G15" s="41">
+        <v>218756.65306122444</v>
+      </c>
+      <c r="G15" s="38">
         <f t="shared" ref="G15:G37" si="3">IF(COUNTBLANK(B15) = 0, $D$5*B15+$F$5," ")</f>
-        <v>1238.25</v>
-      </c>
-      <c r="H15" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H15" s="39">
         <f t="shared" ref="H15:H37" si="4">IF(COUNTBLANK(B15)=0,C15-G15," ")</f>
-        <v>-255.25</v>
-      </c>
-      <c r="I15" s="42">
+        <v>-164.81632653061217</v>
+      </c>
+      <c r="I15" s="39">
         <f t="shared" ref="I15:I37" si="5">IF(COUNTBLANK(B15)=0, H15*H15," ")</f>
-        <v>65152.5625</v>
+        <v>27164.421491045374</v>
       </c>
       <c r="R15" s="3">
         <f>B14*B14</f>
@@ -5733,7 +6236,7 @@
       </c>
       <c r="S15" s="3">
         <f>B14*C14</f>
-        <v>4244</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
@@ -5741,35 +6244,35 @@
         <f t="shared" ref="A16:A37" si="6">IF(COUNTBLANK(C16)=0,A15+1,A15)</f>
         <v>3</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="10">
-        <v>1279</v>
-      </c>
-      <c r="D16" s="39">
+      <c r="C16" s="3">
+        <v>591</v>
+      </c>
+      <c r="D16" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E16" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E16" s="37">
         <f t="shared" si="1"/>
-        <v>-623.625</v>
-      </c>
-      <c r="F16" s="40">
+        <v>-424.71428571428567</v>
+      </c>
+      <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>388908.140625</v>
-      </c>
-      <c r="G16" s="41">
+        <v>180382.22448979589</v>
+      </c>
+      <c r="G16" s="38">
         <f t="shared" si="3"/>
-        <v>1238.25</v>
-      </c>
-      <c r="H16" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H16" s="39">
         <f t="shared" si="4"/>
-        <v>40.75</v>
-      </c>
-      <c r="I16" s="42">
+        <v>-121.81632653061217</v>
+      </c>
+      <c r="I16" s="39">
         <f t="shared" si="5"/>
-        <v>1660.5625</v>
+        <v>14839.217409412728</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="8"/>
@@ -5780,7 +6283,7 @@
       </c>
       <c r="S16" s="3">
         <f>IF(COUNTBLANK(B15)=0,B15*C15," ")</f>
-        <v>3932</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -5788,35 +6291,35 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="10">
-        <v>2372</v>
-      </c>
-      <c r="D17" s="39">
+      <c r="C17" s="3">
+        <v>640</v>
+      </c>
+      <c r="D17" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E17" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E17" s="37">
         <f t="shared" si="1"/>
-        <v>469.375</v>
-      </c>
-      <c r="F17" s="40">
+        <v>-375.71428571428567</v>
+      </c>
+      <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>220312.890625</v>
-      </c>
-      <c r="G17" s="41">
+        <v>141161.22448979589</v>
+      </c>
+      <c r="G17" s="38">
         <f t="shared" si="3"/>
-        <v>1238.25</v>
-      </c>
-      <c r="H17" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H17" s="39">
         <f t="shared" si="4"/>
-        <v>1133.75</v>
-      </c>
-      <c r="I17" s="42">
+        <v>-72.816326530612173</v>
+      </c>
+      <c r="I17" s="39">
         <f t="shared" si="5"/>
-        <v>1285389.0625</v>
+        <v>5302.217409412734</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -5827,7 +6330,7 @@
       </c>
       <c r="S17" s="3">
         <f t="shared" ref="S17:S69" si="8">IF(COUNTBLANK(B16)=0,B16*C16," ")</f>
-        <v>5116</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -5835,35 +6338,35 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="10">
-        <v>874</v>
-      </c>
-      <c r="D18" s="39">
+      <c r="C18" s="3">
+        <v>671</v>
+      </c>
+      <c r="D18" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E18" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>-1028.625</v>
-      </c>
-      <c r="F18" s="40">
+        <v>-344.71428571428567</v>
+      </c>
+      <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>1058069.390625</v>
-      </c>
-      <c r="G18" s="41">
+        <v>118827.93877551016</v>
+      </c>
+      <c r="G18" s="38">
         <f t="shared" si="3"/>
-        <v>1238.25</v>
-      </c>
-      <c r="H18" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H18" s="39">
         <f t="shared" si="4"/>
-        <v>-364.25</v>
-      </c>
-      <c r="I18" s="42">
+        <v>-41.816326530612173</v>
+      </c>
+      <c r="I18" s="39">
         <f t="shared" si="5"/>
-        <v>132678.0625</v>
+        <v>1748.6051645147795</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="7"/>
@@ -5871,7 +6374,7 @@
       </c>
       <c r="S18" s="3">
         <f t="shared" si="8"/>
-        <v>9488</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -5879,35 +6382,35 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="10">
-        <v>1155</v>
-      </c>
-      <c r="D19" s="39">
+      <c r="C19" s="3">
+        <v>678</v>
+      </c>
+      <c r="D19" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E19" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>-747.625</v>
-      </c>
-      <c r="F19" s="40">
+        <v>-337.71428571428567</v>
+      </c>
+      <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>558943.140625</v>
-      </c>
-      <c r="G19" s="41">
+        <v>114050.93877551018</v>
+      </c>
+      <c r="G19" s="38">
         <f t="shared" si="3"/>
-        <v>1238.25</v>
-      </c>
-      <c r="H19" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H19" s="39">
         <f t="shared" si="4"/>
-        <v>-83.25</v>
-      </c>
-      <c r="I19" s="42">
+        <v>-34.816326530612173</v>
+      </c>
+      <c r="I19" s="39">
         <f t="shared" si="5"/>
-        <v>6930.5625</v>
+        <v>1212.1765930862091</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="7"/>
@@ -5915,7 +6418,7 @@
       </c>
       <c r="S19" s="3">
         <f t="shared" si="8"/>
-        <v>3496</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -5923,35 +6426,35 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="10">
-        <v>1669</v>
-      </c>
-      <c r="D20" s="39">
+      <c r="C20" s="3">
+        <v>696</v>
+      </c>
+      <c r="D20" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E20" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>-233.625</v>
-      </c>
-      <c r="F20" s="40">
+        <v>-319.71428571428567</v>
+      </c>
+      <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>54580.640625</v>
-      </c>
-      <c r="G20" s="41">
+        <v>102217.22448979589</v>
+      </c>
+      <c r="G20" s="38">
         <f t="shared" si="3"/>
-        <v>1238.25</v>
-      </c>
-      <c r="H20" s="42">
+        <v>712.81632653061217</v>
+      </c>
+      <c r="H20" s="39">
         <f t="shared" si="4"/>
-        <v>430.75</v>
-      </c>
-      <c r="I20" s="42">
+        <v>-16.816326530612173</v>
+      </c>
+      <c r="I20" s="39">
         <f t="shared" si="5"/>
-        <v>185545.5625</v>
+        <v>282.78883798417087</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="7"/>
@@ -5959,7 +6462,7 @@
       </c>
       <c r="S20" s="3">
         <f t="shared" si="8"/>
-        <v>4620</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -5967,35 +6470,35 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B21" s="24">
-        <v>4</v>
-      </c>
-      <c r="C21" s="10">
-        <v>655</v>
-      </c>
-      <c r="D21" s="39">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>724</v>
+      </c>
+      <c r="D21" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E21" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>-1247.625</v>
-      </c>
-      <c r="F21" s="40">
+        <v>-291.71428571428567</v>
+      </c>
+      <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>1556568.140625</v>
-      </c>
-      <c r="G21" s="41">
+        <v>85097.224489795888</v>
+      </c>
+      <c r="G21" s="38">
         <f t="shared" si="3"/>
-        <v>1238.25</v>
-      </c>
-      <c r="H21" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H21" s="39">
         <f t="shared" si="4"/>
-        <v>-583.25</v>
-      </c>
-      <c r="I21" s="42">
+        <v>-140.26530612244892</v>
+      </c>
+      <c r="I21" s="39">
         <f t="shared" si="5"/>
-        <v>340180.5625</v>
+        <v>19674.356101624307</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" si="7"/>
@@ -6003,7 +6506,7 @@
       </c>
       <c r="S21" s="3">
         <f t="shared" si="8"/>
-        <v>6676</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -6011,43 +6514,43 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="10">
-        <v>1763</v>
-      </c>
-      <c r="D22" s="39">
+      <c r="C22" s="3">
+        <v>837</v>
+      </c>
+      <c r="D22" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E22" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>-139.625</v>
-      </c>
-      <c r="F22" s="40">
+        <v>-178.71428571428567</v>
+      </c>
+      <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>19495.140625</v>
-      </c>
-      <c r="G22" s="41">
+        <v>31938.79591836733</v>
+      </c>
+      <c r="G22" s="38">
         <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H22" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H22" s="39">
         <f t="shared" si="4"/>
-        <v>192.5625</v>
-      </c>
-      <c r="I22" s="42">
+        <v>-27.265306122448919</v>
+      </c>
+      <c r="I22" s="39">
         <f t="shared" si="5"/>
-        <v>37080.31640625</v>
+        <v>743.39691795085048</v>
       </c>
       <c r="R22" s="3">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="S22" s="3">
         <f t="shared" si="8"/>
-        <v>2620</v>
+        <v>11584</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -6055,35 +6558,35 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="3">
         <v>16</v>
       </c>
-      <c r="C23" s="10">
-        <v>1841</v>
-      </c>
-      <c r="D23" s="39">
+      <c r="C23" s="3">
+        <v>859</v>
+      </c>
+      <c r="D23" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E23" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>-61.625</v>
-      </c>
-      <c r="F23" s="40">
+        <v>-156.71428571428567</v>
+      </c>
+      <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>3797.640625</v>
-      </c>
-      <c r="G23" s="41">
+        <v>24559.367346938761</v>
+      </c>
+      <c r="G23" s="38">
         <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H23" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H23" s="39">
         <f t="shared" si="4"/>
-        <v>270.5625</v>
-      </c>
-      <c r="I23" s="42">
+        <v>-5.2653061224489193</v>
+      </c>
+      <c r="I23" s="39">
         <f t="shared" si="5"/>
-        <v>73204.06640625</v>
+        <v>27.723448563098074</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="7"/>
@@ -6091,7 +6594,7 @@
       </c>
       <c r="S23" s="3">
         <f t="shared" si="8"/>
-        <v>28208</v>
+        <v>13392</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -6099,35 +6602,35 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="3">
         <v>16</v>
       </c>
-      <c r="C24" s="10">
-        <v>1919</v>
-      </c>
-      <c r="D24" s="39">
+      <c r="C24" s="3">
+        <v>965</v>
+      </c>
+      <c r="D24" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E24" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>16.375</v>
-      </c>
-      <c r="F24" s="40">
+        <v>-50.714285714285666</v>
+      </c>
+      <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>268.140625</v>
-      </c>
-      <c r="G24" s="41">
+        <v>2571.9387755101993</v>
+      </c>
+      <c r="G24" s="38">
         <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H24" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H24" s="39">
         <f t="shared" si="4"/>
-        <v>348.5625</v>
-      </c>
-      <c r="I24" s="42">
+        <v>100.73469387755108</v>
+      </c>
+      <c r="I24" s="39">
         <f t="shared" si="5"/>
-        <v>121495.81640625</v>
+        <v>10147.478550603928</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="7"/>
@@ -6135,7 +6638,7 @@
       </c>
       <c r="S24" s="3">
         <f t="shared" si="8"/>
-        <v>29456</v>
+        <v>13744</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -6143,35 +6646,35 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="3">
         <v>16</v>
       </c>
-      <c r="C25" s="27">
-        <v>1419</v>
-      </c>
-      <c r="D25" s="39">
+      <c r="C25" s="3">
+        <v>1035</v>
+      </c>
+      <c r="D25" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E25" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>-483.625</v>
-      </c>
-      <c r="F25" s="40">
+        <v>19.285714285714334</v>
+      </c>
+      <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>233893.140625</v>
-      </c>
-      <c r="G25" s="41">
+        <v>371.93877551020597</v>
+      </c>
+      <c r="G25" s="38">
         <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H25" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H25" s="39">
         <f t="shared" si="4"/>
-        <v>-151.4375</v>
-      </c>
-      <c r="I25" s="42">
+        <v>170.73469387755108</v>
+      </c>
+      <c r="I25" s="39">
         <f t="shared" si="5"/>
-        <v>22933.31640625</v>
+        <v>29150.335693461078</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" si="7"/>
@@ -6179,7 +6682,7 @@
       </c>
       <c r="S25" s="3">
         <f t="shared" si="8"/>
-        <v>30704</v>
+        <v>15440</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -6187,35 +6690,35 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="3">
         <v>16</v>
       </c>
-      <c r="C26" s="6">
-        <v>1716</v>
-      </c>
-      <c r="D26" s="39">
+      <c r="C26" s="3">
+        <v>1154</v>
+      </c>
+      <c r="D26" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E26" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>-186.625</v>
-      </c>
-      <c r="F26" s="40">
+        <v>138.28571428571433</v>
+      </c>
+      <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>34828.890625</v>
-      </c>
-      <c r="G26" s="41">
+        <v>19122.938775510218</v>
+      </c>
+      <c r="G26" s="38">
         <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H26" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H26" s="39">
         <f t="shared" si="4"/>
-        <v>145.5625</v>
-      </c>
-      <c r="I26" s="42">
+        <v>289.73469387755108</v>
+      </c>
+      <c r="I26" s="39">
         <f t="shared" si="5"/>
-        <v>21188.44140625</v>
+        <v>83946.192836318238</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="7"/>
@@ -6223,7 +6726,7 @@
       </c>
       <c r="S26" s="3">
         <f t="shared" si="8"/>
-        <v>22704</v>
+        <v>16560</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -6231,35 +6734,35 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="3">
         <v>16</v>
       </c>
-      <c r="C27" s="6">
-        <v>1357</v>
-      </c>
-      <c r="D27" s="39">
+      <c r="C27" s="3">
+        <v>1288</v>
+      </c>
+      <c r="D27" s="36">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E27" s="40">
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>-545.625</v>
-      </c>
-      <c r="F27" s="40">
+        <v>272.28571428571433</v>
+      </c>
+      <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>297706.640625</v>
-      </c>
-      <c r="G27" s="41">
+        <v>74139.510204081656</v>
+      </c>
+      <c r="G27" s="38">
         <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H27" s="42">
+        <v>864.26530612244892</v>
+      </c>
+      <c r="H27" s="39">
         <f t="shared" si="4"/>
-        <v>-213.4375</v>
-      </c>
-      <c r="I27" s="42">
+        <v>423.73469387755108</v>
+      </c>
+      <c r="I27" s="39">
         <f t="shared" si="5"/>
-        <v>45555.56640625</v>
+        <v>179551.09079550192</v>
       </c>
       <c r="R27" s="3">
         <f t="shared" si="7"/>
@@ -6267,43 +6770,43 @@
       </c>
       <c r="S27" s="3">
         <f t="shared" si="8"/>
-        <v>27456</v>
+        <v>18464</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C28)=0,A27+1,A27)</f>
         <v>15</v>
       </c>
-      <c r="B28" s="25">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1138</v>
-      </c>
-      <c r="D28" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E28" s="40">
-        <f t="shared" si="1"/>
-        <v>-764.625</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="2"/>
-        <v>584651.390625</v>
-      </c>
-      <c r="G28" s="41">
-        <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H28" s="42">
-        <f t="shared" si="4"/>
-        <v>-432.4375</v>
-      </c>
-      <c r="I28" s="42">
-        <f t="shared" si="5"/>
-        <v>187002.19140625</v>
+      <c r="B28" s="3">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3">
+        <v>859</v>
+      </c>
+      <c r="D28" s="36">
+        <f>IF(COUNTBLANK(B28)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E28" s="37">
+        <f>IF(COUNTBLANK(B28)=0,C28-D28," ")</f>
+        <v>-156.71428571428567</v>
+      </c>
+      <c r="F28" s="37">
+        <f>IF(COUNTBLANK(B28)=0,E28*E28," ")</f>
+        <v>24559.367346938761</v>
+      </c>
+      <c r="G28" s="38">
+        <f>IF(COUNTBLANK(B28) = 0, $D$5*B28+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H28" s="39">
+        <f>IF(COUNTBLANK(B28)=0,C28-G28," ")</f>
+        <v>-611.06122448979568</v>
+      </c>
+      <c r="I28" s="39">
+        <f>IF(COUNTBLANK(B28)=0, H28*H28," ")</f>
+        <v>373395.82007496845</v>
       </c>
       <c r="R28" s="3">
         <f t="shared" si="7"/>
@@ -6311,442 +6814,430 @@
       </c>
       <c r="S28" s="3">
         <f t="shared" si="8"/>
-        <v>21712</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C29)=0,A28+1,A28)</f>
         <v>16</v>
       </c>
-      <c r="B29" s="25">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1233</v>
-      </c>
-      <c r="D29" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E29" s="40">
-        <f t="shared" si="1"/>
-        <v>-669.625</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="2"/>
-        <v>448397.640625</v>
-      </c>
-      <c r="G29" s="41">
-        <f t="shared" si="3"/>
-        <v>1570.4375</v>
-      </c>
-      <c r="H29" s="42">
-        <f t="shared" si="4"/>
-        <v>-337.4375</v>
-      </c>
-      <c r="I29" s="42">
-        <f t="shared" si="5"/>
-        <v>113864.06640625</v>
-      </c>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
+      <c r="B29" s="3">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1347</v>
+      </c>
+      <c r="D29" s="36">
+        <f>IF(COUNTBLANK(B29)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E29" s="37">
+        <f>IF(COUNTBLANK(B29)=0,C29-D29," ")</f>
+        <v>331.28571428571433</v>
+      </c>
+      <c r="F29" s="37">
+        <f>IF(COUNTBLANK(B29)=0,E29*E29," ")</f>
+        <v>109750.22448979595</v>
+      </c>
+      <c r="G29" s="38">
+        <f>IF(COUNTBLANK(B29) = 0, $D$5*B29+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H29" s="39">
+        <f>IF(COUNTBLANK(B29)=0,C29-G29," ")</f>
+        <v>-123.06122448979568</v>
+      </c>
+      <c r="I29" s="39">
+        <f>IF(COUNTBLANK(B29)=0, H29*H29," ")</f>
+        <v>15144.064972927887</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
       <c r="R29" s="3">
-        <f t="shared" si="7"/>
-        <v>256</v>
+        <f>IF(COUNTBLANK(B28)=0,B28*B28," ")</f>
+        <v>4096</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="8"/>
-        <v>18208</v>
+        <f>IF(COUNTBLANK(B28)=0,B28*C28," ")</f>
+        <v>54976</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C30)=0,A29+1,A29)</f>
         <v>17</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="3">
         <v>64</v>
       </c>
-      <c r="C30" s="6">
-        <v>2870</v>
-      </c>
-      <c r="D30" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E30" s="40">
-        <f t="shared" si="1"/>
-        <v>967.375</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="2"/>
-        <v>935814.390625</v>
-      </c>
-      <c r="G30" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H30" s="42">
-        <f t="shared" si="4"/>
-        <v>-29.1875</v>
-      </c>
-      <c r="I30" s="42">
-        <f t="shared" si="5"/>
-        <v>851.91015625</v>
-      </c>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
+      <c r="C30" s="3">
+        <v>1355</v>
+      </c>
+      <c r="D30" s="36">
+        <f>IF(COUNTBLANK(B30)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E30" s="37">
+        <f>IF(COUNTBLANK(B30)=0,C30-D30," ")</f>
+        <v>339.28571428571433</v>
+      </c>
+      <c r="F30" s="37">
+        <f>IF(COUNTBLANK(B30)=0,E30*E30," ")</f>
+        <v>115114.79591836738</v>
+      </c>
+      <c r="G30" s="38">
+        <f>IF(COUNTBLANK(B30) = 0, $D$5*B30+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H30" s="39">
+        <f>IF(COUNTBLANK(B30)=0,C30-G30," ")</f>
+        <v>-115.06122448979568</v>
+      </c>
+      <c r="I30" s="39">
+        <f>IF(COUNTBLANK(B30)=0, H30*H30," ")</f>
+        <v>13239.085381091156</v>
+      </c>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
       <c r="R30" s="3">
-        <f t="shared" si="7"/>
-        <v>256</v>
+        <f>IF(COUNTBLANK(B29)=0,B29*B29," ")</f>
+        <v>4096</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="8"/>
-        <v>19728</v>
+        <f>IF(COUNTBLANK(B29)=0,B29*C29," ")</f>
+        <v>86208</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C31)=0,A30+1,A30)</f>
         <v>18</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="3">
         <v>64</v>
       </c>
-      <c r="C31" s="6">
-        <v>4072</v>
-      </c>
-      <c r="D31" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E31" s="40">
-        <f t="shared" si="1"/>
-        <v>2169.375</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="2"/>
-        <v>4706187.890625</v>
-      </c>
-      <c r="G31" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H31" s="42">
-        <f t="shared" si="4"/>
-        <v>1172.8125</v>
-      </c>
-      <c r="I31" s="42">
-        <f t="shared" si="5"/>
-        <v>1375489.16015625</v>
+      <c r="C31" s="3">
+        <v>1414</v>
+      </c>
+      <c r="D31" s="36">
+        <f>IF(COUNTBLANK(B31)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E31" s="37">
+        <f>IF(COUNTBLANK(B31)=0,C31-D31," ")</f>
+        <v>398.28571428571433</v>
+      </c>
+      <c r="F31" s="37">
+        <f>IF(COUNTBLANK(B31)=0,E31*E31," ")</f>
+        <v>158631.51020408169</v>
+      </c>
+      <c r="G31" s="38">
+        <f>IF(COUNTBLANK(B31) = 0, $D$5*B31+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H31" s="39">
+        <f>IF(COUNTBLANK(B31)=0,C31-G31," ")</f>
+        <v>-56.061224489795677</v>
+      </c>
+      <c r="I31" s="39">
+        <f>IF(COUNTBLANK(B31)=0, H31*H31," ")</f>
+        <v>3142.8608912952664</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(COUNTBLANK(B30)=0,B30*B30," ")</f>
         <v>4096</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="8"/>
-        <v>183680</v>
+        <f>IF(COUNTBLANK(B30)=0,B30*C30," ")</f>
+        <v>86720</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C32)=0,A31+1,A31)</f>
         <v>19</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="3">
         <v>64</v>
       </c>
-      <c r="C32" s="6">
-        <v>2699</v>
-      </c>
-      <c r="D32" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E32" s="40">
-        <f t="shared" si="1"/>
-        <v>796.375</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="2"/>
-        <v>634213.140625</v>
-      </c>
-      <c r="G32" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H32" s="42">
-        <f t="shared" si="4"/>
-        <v>-200.1875</v>
-      </c>
-      <c r="I32" s="42">
-        <f t="shared" si="5"/>
-        <v>40075.03515625</v>
+      <c r="C32" s="3">
+        <v>1452</v>
+      </c>
+      <c r="D32" s="36">
+        <f>IF(COUNTBLANK(B32)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E32" s="37">
+        <f>IF(COUNTBLANK(B32)=0,C32-D32," ")</f>
+        <v>436.28571428571433</v>
+      </c>
+      <c r="F32" s="37">
+        <f>IF(COUNTBLANK(B32)=0,E32*E32," ")</f>
+        <v>190345.22448979598</v>
+      </c>
+      <c r="G32" s="38">
+        <f>IF(COUNTBLANK(B32) = 0, $D$5*B32+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H32" s="39">
+        <f>IF(COUNTBLANK(B32)=0,C32-G32," ")</f>
+        <v>-18.061224489795677</v>
+      </c>
+      <c r="I32" s="39">
+        <f>IF(COUNTBLANK(B32)=0, H32*H32," ")</f>
+        <v>326.20783007079513</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(COUNTBLANK(B31)=0,B31*B31," ")</f>
         <v>4096</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="8"/>
-        <v>260608</v>
+        <f>IF(COUNTBLANK(B31)=0,B31*C31," ")</f>
+        <v>90496</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C33)=0,A32+1,A32)</f>
         <v>20</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="3">
         <v>64</v>
       </c>
-      <c r="C33" s="6">
-        <v>2542</v>
-      </c>
-      <c r="D33" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E33" s="40">
-        <f t="shared" si="1"/>
-        <v>639.375</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="2"/>
-        <v>408800.390625</v>
-      </c>
-      <c r="G33" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H33" s="42">
-        <f t="shared" si="4"/>
-        <v>-357.1875</v>
-      </c>
-      <c r="I33" s="42">
-        <f t="shared" si="5"/>
-        <v>127582.91015625</v>
+      <c r="C33" s="3">
+        <v>1662</v>
+      </c>
+      <c r="D33" s="36">
+        <f>IF(COUNTBLANK(B33)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E33" s="37">
+        <f>IF(COUNTBLANK(B33)=0,C33-D33," ")</f>
+        <v>646.28571428571433</v>
+      </c>
+      <c r="F33" s="37">
+        <f>IF(COUNTBLANK(B33)=0,E33*E33," ")</f>
+        <v>417685.22448979598</v>
+      </c>
+      <c r="G33" s="38">
+        <f>IF(COUNTBLANK(B33) = 0, $D$5*B33+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H33" s="39">
+        <f>IF(COUNTBLANK(B33)=0,C33-G33," ")</f>
+        <v>191.93877551020432</v>
+      </c>
+      <c r="I33" s="39">
+        <f>IF(COUNTBLANK(B33)=0, H33*H33," ")</f>
+        <v>36840.493544356614</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(COUNTBLANK(B32)=0,B32*B32," ")</f>
         <v>4096</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="8"/>
-        <v>172736</v>
+        <f>IF(COUNTBLANK(B32)=0,B32*C32," ")</f>
+        <v>92928</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTBLANK(C34)=0,A33+1,A33)</f>
         <v>21</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="3">
         <v>64</v>
       </c>
-      <c r="C34" s="6">
-        <v>2122</v>
-      </c>
-      <c r="D34" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E34" s="40">
-        <f t="shared" si="1"/>
-        <v>219.375</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="2"/>
-        <v>48125.390625</v>
-      </c>
-      <c r="G34" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H34" s="42">
-        <f t="shared" si="4"/>
-        <v>-777.1875</v>
-      </c>
-      <c r="I34" s="42">
-        <f t="shared" si="5"/>
-        <v>604020.41015625</v>
+      <c r="C34" s="3">
+        <v>2039</v>
+      </c>
+      <c r="D34" s="36">
+        <f>IF(COUNTBLANK(B34)=0,$D$3," ")</f>
+        <v>1015.7142857142857</v>
+      </c>
+      <c r="E34" s="37">
+        <f>IF(COUNTBLANK(B34)=0,C34-D34," ")</f>
+        <v>1023.2857142857143</v>
+      </c>
+      <c r="F34" s="37">
+        <f>IF(COUNTBLANK(B34)=0,E34*E34," ")</f>
+        <v>1047113.6530612246</v>
+      </c>
+      <c r="G34" s="38">
+        <f>IF(COUNTBLANK(B34) = 0, $D$5*B34+$F$5," ")</f>
+        <v>1470.0612244897957</v>
+      </c>
+      <c r="H34" s="39">
+        <f>IF(COUNTBLANK(B34)=0,C34-G34," ")</f>
+        <v>568.93877551020432</v>
+      </c>
+      <c r="I34" s="39">
+        <f>IF(COUNTBLANK(B34)=0, H34*H34," ")</f>
+        <v>323691.33027905069</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(COUNTBLANK(B33)=0,B33*B33," ")</f>
         <v>4096</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="8"/>
-        <v>162688</v>
+        <f>IF(COUNTBLANK(B33)=0,B33*C33," ")</f>
+        <v>106368</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B35" s="25">
-        <v>64</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1919</v>
-      </c>
-      <c r="D35" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E35" s="40">
-        <f t="shared" si="1"/>
-        <v>16.375</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="2"/>
-        <v>268.140625</v>
-      </c>
-      <c r="G35" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H35" s="42">
-        <f t="shared" si="4"/>
-        <v>-980.1875</v>
-      </c>
-      <c r="I35" s="42">
-        <f t="shared" si="5"/>
-        <v>960767.53515625</v>
+        <f>IF(COUNTBLANK(C35)=0,A34+1,A34)</f>
+        <v>21</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="36" t="str">
+        <f>IF(COUNTBLANK(B35)=0,$D$3," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E35" s="37" t="str">
+        <f>IF(COUNTBLANK(B35)=0,C35-D35," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F35" s="37" t="str">
+        <f>IF(COUNTBLANK(B35)=0,E35*E35," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G35" s="38" t="str">
+        <f>IF(COUNTBLANK(B35) = 0, $D$5*B35+$F$5," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H35" s="39" t="str">
+        <f>IF(COUNTBLANK(B35)=0,C35-G35," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I35" s="39" t="str">
+        <f>IF(COUNTBLANK(B35)=0, H35*H35," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(COUNTBLANK(B34)=0,B34*B34," ")</f>
         <v>4096</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="8"/>
-        <v>135808</v>
+        <f>IF(COUNTBLANK(B34)=0,B34*C34," ")</f>
+        <v>130496</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B36" s="25">
-        <v>64</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1935</v>
-      </c>
-      <c r="D36" s="39">
-        <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E36" s="40">
-        <f t="shared" si="1"/>
-        <v>32.375</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="2"/>
-        <v>1048.140625</v>
-      </c>
-      <c r="G36" s="41">
-        <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H36" s="42">
-        <f t="shared" si="4"/>
-        <v>-964.1875</v>
-      </c>
-      <c r="I36" s="42">
-        <f t="shared" si="5"/>
-        <v>929657.53515625</v>
-      </c>
-      <c r="R36" s="3">
-        <f t="shared" si="7"/>
-        <v>4096</v>
-      </c>
-      <c r="S36" s="3">
-        <f t="shared" si="8"/>
-        <v>122816</v>
+        <f>IF(COUNTBLANK(C36)=0,A35+1,A35)</f>
+        <v>21</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="36" t="str">
+        <f>IF(COUNTBLANK(B36)=0,$D$3," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E36" s="37" t="str">
+        <f>IF(COUNTBLANK(B36)=0,C36-D36," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F36" s="37" t="str">
+        <f>IF(COUNTBLANK(B36)=0,E36*E36," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G36" s="38" t="str">
+        <f>IF(COUNTBLANK(B36) = 0, $D$5*B36+$F$5," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H36" s="39" t="str">
+        <f>IF(COUNTBLANK(B36)=0,C36-G36," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I36" s="39" t="str">
+        <f>IF(COUNTBLANK(B36)=0, H36*H36," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R36" s="3" t="str">
+        <f>IF(COUNTBLANK(B35)=0,B35*B35," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S36" s="3" t="str">
+        <f>IF(COUNTBLANK(B35)=0,B35*C35," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B37" s="25">
-        <v>64</v>
-      </c>
-      <c r="C37" s="6">
-        <v>5070</v>
-      </c>
-      <c r="D37" s="39">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>1902.625</v>
-      </c>
-      <c r="E37" s="40">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E37" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>3167.375</v>
-      </c>
-      <c r="F37" s="40">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F37" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>10032264.390625</v>
-      </c>
-      <c r="G37" s="41">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G37" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>2899.1875</v>
-      </c>
-      <c r="H37" s="42">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H37" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>2170.8125</v>
-      </c>
-      <c r="I37" s="42">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I37" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>4712426.91015625</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="7"/>
-        <v>4096</v>
-      </c>
-      <c r="S37" s="3">
-        <f t="shared" si="8"/>
-        <v>123840</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R37" s="3" t="str">
+        <f>IF(COUNTBLANK(B36)=0,B36*B36," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S37" s="3" t="str">
+        <f>IF(COUNTBLANK(B36)=0,B36*C36," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
-      <c r="B38" s="25"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="R38" s="3">
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="R38" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>4096</v>
-      </c>
-      <c r="S38" s="3">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S38" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>324480</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
-      <c r="B39" s="25"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
       <c r="R39" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6758,14 +7249,14 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
-      <c r="B40" s="25"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
       <c r="R40" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6777,14 +7268,14 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
-      <c r="B41" s="25"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
       <c r="R41" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6796,14 +7287,14 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
-      <c r="B42" s="25"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
       <c r="R42" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6815,14 +7306,14 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
-      <c r="B43" s="25"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
       <c r="R43" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6834,14 +7325,14 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
-      <c r="B44" s="25"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
       <c r="R44" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6853,14 +7344,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
-      <c r="B45" s="25"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
       <c r="R45" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6872,14 +7363,14 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
-      <c r="B46" s="25"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
       <c r="R46" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6891,14 +7382,14 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
-      <c r="B47" s="25"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
       <c r="R47" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6910,14 +7401,14 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
       <c r="R48" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6929,14 +7420,14 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
-      <c r="B49" s="25"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
       <c r="R49" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6948,14 +7439,14 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
-      <c r="B50" s="25"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
       <c r="R50" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6967,14 +7458,14 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
-      <c r="B51" s="25"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
       <c r="R51" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -6986,14 +7477,14 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
       <c r="R52" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7005,14 +7496,14 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
       <c r="R53" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7024,14 +7515,14 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
       <c r="R54" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7043,14 +7534,14 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
-      <c r="B55" s="25"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
       <c r="R55" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7062,14 +7553,14 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
-      <c r="B56" s="25"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
       <c r="R56" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7081,14 +7572,14 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
       <c r="R57" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7100,14 +7591,14 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
       <c r="R58" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7119,14 +7610,14 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
       <c r="R59" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7138,14 +7629,14 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
       <c r="R60" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7157,14 +7648,14 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
-      <c r="B61" s="25"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
       <c r="R61" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7176,14 +7667,14 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
-      <c r="B62" s="25"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
       <c r="R62" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7195,14 +7686,14 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
-      <c r="B63" s="25"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
       <c r="R63" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7214,14 +7705,14 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
-      <c r="B64" s="25"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
       <c r="R64" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7233,14 +7724,14 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
-      <c r="B65" s="25"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
       <c r="R65" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7252,14 +7743,14 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
       <c r="R66" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7271,14 +7762,14 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
       <c r="R67" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -7290,14 +7781,14 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
       <c r="R68" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>

--- a/Cog Sci 242 F17 Lab 6 - Regression Analysis My Data.xlsx
+++ b/Cog Sci 242 F17 Lab 6 - Regression Analysis My Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa5\Google Drive\Oxy 2018 Fall\CogS 242\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1797E1AB-6CAE-4E83-8C9E-47236B23BF5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03107AC-F07D-41B4-AFFC-DE885E298EC5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1343" windowWidth="25283" windowHeight="13523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1343" windowWidth="25283" windowHeight="13523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="15" r:id="rId1"/>
@@ -2191,7 +2191,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2235,7 +2235,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5797,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f>IF(COUNTBLANK(C28)=0,A27+1,A27)</f>
+        <f t="shared" ref="A28:A36" si="9">IF(COUNTBLANK(C28)=0,A27+1,A27)</f>
         <v>15</v>
       </c>
       <c r="B28" s="3">
@@ -6785,27 +6785,27 @@
         <v>859</v>
       </c>
       <c r="D28" s="36">
-        <f>IF(COUNTBLANK(B28)=0,$D$3," ")</f>
+        <f t="shared" ref="D28:D36" si="10">IF(COUNTBLANK(B28)=0,$D$3," ")</f>
         <v>1015.7142857142857</v>
       </c>
       <c r="E28" s="37">
-        <f>IF(COUNTBLANK(B28)=0,C28-D28," ")</f>
+        <f t="shared" ref="E28:E36" si="11">IF(COUNTBLANK(B28)=0,C28-D28," ")</f>
         <v>-156.71428571428567</v>
       </c>
       <c r="F28" s="37">
-        <f>IF(COUNTBLANK(B28)=0,E28*E28," ")</f>
+        <f t="shared" ref="F28:F36" si="12">IF(COUNTBLANK(B28)=0,E28*E28," ")</f>
         <v>24559.367346938761</v>
       </c>
       <c r="G28" s="38">
-        <f>IF(COUNTBLANK(B28) = 0, $D$5*B28+$F$5," ")</f>
+        <f t="shared" ref="G28:G36" si="13">IF(COUNTBLANK(B28) = 0, $D$5*B28+$F$5," ")</f>
         <v>1470.0612244897957</v>
       </c>
       <c r="H28" s="39">
-        <f>IF(COUNTBLANK(B28)=0,C28-G28," ")</f>
+        <f t="shared" ref="H28:H36" si="14">IF(COUNTBLANK(B28)=0,C28-G28," ")</f>
         <v>-611.06122448979568</v>
       </c>
       <c r="I28" s="39">
-        <f>IF(COUNTBLANK(B28)=0, H28*H28," ")</f>
+        <f t="shared" ref="I28:I36" si="15">IF(COUNTBLANK(B28)=0, H28*H28," ")</f>
         <v>373395.82007496845</v>
       </c>
       <c r="R28" s="3">
@@ -6819,7 +6819,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f>IF(COUNTBLANK(C29)=0,A28+1,A28)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="B29" s="3">
@@ -6829,27 +6829,27 @@
         <v>1347</v>
       </c>
       <c r="D29" s="36">
-        <f>IF(COUNTBLANK(B29)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v>1015.7142857142857</v>
       </c>
       <c r="E29" s="37">
-        <f>IF(COUNTBLANK(B29)=0,C29-D29," ")</f>
+        <f t="shared" si="11"/>
         <v>331.28571428571433</v>
       </c>
       <c r="F29" s="37">
-        <f>IF(COUNTBLANK(B29)=0,E29*E29," ")</f>
+        <f t="shared" si="12"/>
         <v>109750.22448979595</v>
       </c>
       <c r="G29" s="38">
-        <f>IF(COUNTBLANK(B29) = 0, $D$5*B29+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v>1470.0612244897957</v>
       </c>
       <c r="H29" s="39">
-        <f>IF(COUNTBLANK(B29)=0,C29-G29," ")</f>
+        <f t="shared" si="14"/>
         <v>-123.06122448979568</v>
       </c>
       <c r="I29" s="39">
-        <f>IF(COUNTBLANK(B29)=0, H29*H29," ")</f>
+        <f t="shared" si="15"/>
         <v>15144.064972927887</v>
       </c>
       <c r="K29" s="69"/>
@@ -6857,17 +6857,17 @@
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="R29" s="3">
-        <f>IF(COUNTBLANK(B28)=0,B28*B28," ")</f>
+        <f t="shared" ref="R29:R37" si="16">IF(COUNTBLANK(B28)=0,B28*B28," ")</f>
         <v>4096</v>
       </c>
       <c r="S29" s="3">
-        <f>IF(COUNTBLANK(B28)=0,B28*C28," ")</f>
+        <f t="shared" ref="S29:S37" si="17">IF(COUNTBLANK(B28)=0,B28*C28," ")</f>
         <v>54976</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f>IF(COUNTBLANK(C30)=0,A29+1,A29)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="B30" s="3">
@@ -6877,27 +6877,27 @@
         <v>1355</v>
       </c>
       <c r="D30" s="36">
-        <f>IF(COUNTBLANK(B30)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v>1015.7142857142857</v>
       </c>
       <c r="E30" s="37">
-        <f>IF(COUNTBLANK(B30)=0,C30-D30," ")</f>
+        <f t="shared" si="11"/>
         <v>339.28571428571433</v>
       </c>
       <c r="F30" s="37">
-        <f>IF(COUNTBLANK(B30)=0,E30*E30," ")</f>
+        <f t="shared" si="12"/>
         <v>115114.79591836738</v>
       </c>
       <c r="G30" s="38">
-        <f>IF(COUNTBLANK(B30) = 0, $D$5*B30+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v>1470.0612244897957</v>
       </c>
       <c r="H30" s="39">
-        <f>IF(COUNTBLANK(B30)=0,C30-G30," ")</f>
+        <f t="shared" si="14"/>
         <v>-115.06122448979568</v>
       </c>
       <c r="I30" s="39">
-        <f>IF(COUNTBLANK(B30)=0, H30*H30," ")</f>
+        <f t="shared" si="15"/>
         <v>13239.085381091156</v>
       </c>
       <c r="K30" s="69"/>
@@ -6905,17 +6905,17 @@
       <c r="M30" s="69"/>
       <c r="N30" s="69"/>
       <c r="R30" s="3">
-        <f>IF(COUNTBLANK(B29)=0,B29*B29," ")</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="S30" s="3">
-        <f>IF(COUNTBLANK(B29)=0,B29*C29," ")</f>
+        <f t="shared" si="17"/>
         <v>86208</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f>IF(COUNTBLANK(C31)=0,A30+1,A30)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="B31" s="3">
@@ -6925,41 +6925,41 @@
         <v>1414</v>
       </c>
       <c r="D31" s="36">
-        <f>IF(COUNTBLANK(B31)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v>1015.7142857142857</v>
       </c>
       <c r="E31" s="37">
-        <f>IF(COUNTBLANK(B31)=0,C31-D31," ")</f>
+        <f t="shared" si="11"/>
         <v>398.28571428571433</v>
       </c>
       <c r="F31" s="37">
-        <f>IF(COUNTBLANK(B31)=0,E31*E31," ")</f>
+        <f t="shared" si="12"/>
         <v>158631.51020408169</v>
       </c>
       <c r="G31" s="38">
-        <f>IF(COUNTBLANK(B31) = 0, $D$5*B31+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v>1470.0612244897957</v>
       </c>
       <c r="H31" s="39">
-        <f>IF(COUNTBLANK(B31)=0,C31-G31," ")</f>
+        <f t="shared" si="14"/>
         <v>-56.061224489795677</v>
       </c>
       <c r="I31" s="39">
-        <f>IF(COUNTBLANK(B31)=0, H31*H31," ")</f>
+        <f t="shared" si="15"/>
         <v>3142.8608912952664</v>
       </c>
       <c r="R31" s="3">
-        <f>IF(COUNTBLANK(B30)=0,B30*B30," ")</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="S31" s="3">
-        <f>IF(COUNTBLANK(B30)=0,B30*C30," ")</f>
+        <f t="shared" si="17"/>
         <v>86720</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f>IF(COUNTBLANK(C32)=0,A31+1,A31)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="B32" s="3">
@@ -6969,41 +6969,41 @@
         <v>1452</v>
       </c>
       <c r="D32" s="36">
-        <f>IF(COUNTBLANK(B32)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v>1015.7142857142857</v>
       </c>
       <c r="E32" s="37">
-        <f>IF(COUNTBLANK(B32)=0,C32-D32," ")</f>
+        <f t="shared" si="11"/>
         <v>436.28571428571433</v>
       </c>
       <c r="F32" s="37">
-        <f>IF(COUNTBLANK(B32)=0,E32*E32," ")</f>
+        <f t="shared" si="12"/>
         <v>190345.22448979598</v>
       </c>
       <c r="G32" s="38">
-        <f>IF(COUNTBLANK(B32) = 0, $D$5*B32+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v>1470.0612244897957</v>
       </c>
       <c r="H32" s="39">
-        <f>IF(COUNTBLANK(B32)=0,C32-G32," ")</f>
+        <f t="shared" si="14"/>
         <v>-18.061224489795677</v>
       </c>
       <c r="I32" s="39">
-        <f>IF(COUNTBLANK(B32)=0, H32*H32," ")</f>
+        <f t="shared" si="15"/>
         <v>326.20783007079513</v>
       </c>
       <c r="R32" s="3">
-        <f>IF(COUNTBLANK(B31)=0,B31*B31," ")</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="S32" s="3">
-        <f>IF(COUNTBLANK(B31)=0,B31*C31," ")</f>
+        <f t="shared" si="17"/>
         <v>90496</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f>IF(COUNTBLANK(C33)=0,A32+1,A32)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="B33" s="3">
@@ -7013,41 +7013,41 @@
         <v>1662</v>
       </c>
       <c r="D33" s="36">
-        <f>IF(COUNTBLANK(B33)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v>1015.7142857142857</v>
       </c>
       <c r="E33" s="37">
-        <f>IF(COUNTBLANK(B33)=0,C33-D33," ")</f>
+        <f t="shared" si="11"/>
         <v>646.28571428571433</v>
       </c>
       <c r="F33" s="37">
-        <f>IF(COUNTBLANK(B33)=0,E33*E33," ")</f>
+        <f t="shared" si="12"/>
         <v>417685.22448979598</v>
       </c>
       <c r="G33" s="38">
-        <f>IF(COUNTBLANK(B33) = 0, $D$5*B33+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v>1470.0612244897957</v>
       </c>
       <c r="H33" s="39">
-        <f>IF(COUNTBLANK(B33)=0,C33-G33," ")</f>
+        <f t="shared" si="14"/>
         <v>191.93877551020432</v>
       </c>
       <c r="I33" s="39">
-        <f>IF(COUNTBLANK(B33)=0, H33*H33," ")</f>
+        <f t="shared" si="15"/>
         <v>36840.493544356614</v>
       </c>
       <c r="R33" s="3">
-        <f>IF(COUNTBLANK(B32)=0,B32*B32," ")</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="S33" s="3">
-        <f>IF(COUNTBLANK(B32)=0,B32*C32," ")</f>
+        <f t="shared" si="17"/>
         <v>92928</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f>IF(COUNTBLANK(C34)=0,A33+1,A33)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="B34" s="3">
@@ -7057,115 +7057,115 @@
         <v>2039</v>
       </c>
       <c r="D34" s="36">
-        <f>IF(COUNTBLANK(B34)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v>1015.7142857142857</v>
       </c>
       <c r="E34" s="37">
-        <f>IF(COUNTBLANK(B34)=0,C34-D34," ")</f>
+        <f t="shared" si="11"/>
         <v>1023.2857142857143</v>
       </c>
       <c r="F34" s="37">
-        <f>IF(COUNTBLANK(B34)=0,E34*E34," ")</f>
+        <f t="shared" si="12"/>
         <v>1047113.6530612246</v>
       </c>
       <c r="G34" s="38">
-        <f>IF(COUNTBLANK(B34) = 0, $D$5*B34+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v>1470.0612244897957</v>
       </c>
       <c r="H34" s="39">
-        <f>IF(COUNTBLANK(B34)=0,C34-G34," ")</f>
+        <f t="shared" si="14"/>
         <v>568.93877551020432</v>
       </c>
       <c r="I34" s="39">
-        <f>IF(COUNTBLANK(B34)=0, H34*H34," ")</f>
+        <f t="shared" si="15"/>
         <v>323691.33027905069</v>
       </c>
       <c r="R34" s="3">
-        <f>IF(COUNTBLANK(B33)=0,B33*B33," ")</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="S34" s="3">
-        <f>IF(COUNTBLANK(B33)=0,B33*C33," ")</f>
+        <f t="shared" si="17"/>
         <v>106368</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f>IF(COUNTBLANK(C35)=0,A34+1,A34)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="36" t="str">
-        <f>IF(COUNTBLANK(B35)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E35" s="37" t="str">
-        <f>IF(COUNTBLANK(B35)=0,C35-D35," ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F35" s="37" t="str">
-        <f>IF(COUNTBLANK(B35)=0,E35*E35," ")</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G35" s="38" t="str">
-        <f>IF(COUNTBLANK(B35) = 0, $D$5*B35+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H35" s="39" t="str">
-        <f>IF(COUNTBLANK(B35)=0,C35-G35," ")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I35" s="39" t="str">
-        <f>IF(COUNTBLANK(B35)=0, H35*H35," ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R35" s="3">
-        <f>IF(COUNTBLANK(B34)=0,B34*B34," ")</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="S35" s="3">
-        <f>IF(COUNTBLANK(B34)=0,B34*C34," ")</f>
+        <f t="shared" si="17"/>
         <v>130496</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f>IF(COUNTBLANK(C36)=0,A35+1,A35)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="36" t="str">
-        <f>IF(COUNTBLANK(B36)=0,$D$3," ")</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E36" s="37" t="str">
-        <f>IF(COUNTBLANK(B36)=0,C36-D36," ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F36" s="37" t="str">
-        <f>IF(COUNTBLANK(B36)=0,E36*E36," ")</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G36" s="38" t="str">
-        <f>IF(COUNTBLANK(B36) = 0, $D$5*B36+$F$5," ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H36" s="39" t="str">
-        <f>IF(COUNTBLANK(B36)=0,C36-G36," ")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I36" s="39" t="str">
-        <f>IF(COUNTBLANK(B36)=0, H36*H36," ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R36" s="3" t="str">
-        <f>IF(COUNTBLANK(B35)=0,B35*B35," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S36" s="3" t="str">
-        <f>IF(COUNTBLANK(B35)=0,B35*C35," ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7201,11 +7201,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="R37" s="3" t="str">
-        <f>IF(COUNTBLANK(B36)=0,B36*B36," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S37" s="3" t="str">
-        <f>IF(COUNTBLANK(B36)=0,B36*C36," ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
